--- a/results/Winner_determination/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>826.9910076585455</v>
+        <v>472.2826626326101</v>
       </c>
       <c r="H2">
-        <v>164.805640853598</v>
+        <v>71.59391356899059</v>
       </c>
       <c r="I2">
-        <v>662.1853668049475</v>
+        <v>400.6887490636195</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>662.1853668049474</v>
+        <v>400.6887490636194</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>826.9910076585455</v>
+        <v>472.2826626326101</v>
       </c>
       <c r="P2">
-        <v>164.8056408535981</v>
+        <v>71.59391356899059</v>
       </c>
       <c r="Q2">
-        <v>1.613026976146464</v>
+        <v>1.886567603515629</v>
       </c>
       <c r="R2">
-        <v>396.349422286988</v>
+        <v>265.6219911154639</v>
       </c>
       <c r="S2">
-        <v>5.017977560568979</v>
+        <v>6.596687331214278</v>
       </c>
       <c r="T2">
-        <v>5.017977560568981</v>
+        <v>6.596687331214278</v>
       </c>
       <c r="U2">
-        <v>1.613026976146464</v>
+        <v>1.886567603515629</v>
       </c>
       <c r="V2">
-        <v>396.3494222869881</v>
+        <v>265.6219911154639</v>
       </c>
       <c r="W2">
-        <v>282.1084700126185</v>
+        <v>543.6050877539465</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>282.1084700126186</v>
+        <v>543.6050877539466</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>906.9367325802865</v>
+        <v>551.4561814957559</v>
       </c>
       <c r="H3">
-        <v>127.0224921966227</v>
+        <v>42.80290432225114</v>
       </c>
       <c r="I3">
-        <v>779.9142403836638</v>
+        <v>508.6532771735048</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>803.9741864503635</v>
+        <v>508.6532771735046</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>0.9700737331220458</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>929.5178375631195</v>
+        <v>551.4561814957559</v>
       </c>
       <c r="P3">
-        <v>125.543651112756</v>
+        <v>42.80290432225114</v>
       </c>
       <c r="Q3">
-        <v>2.0020124817414</v>
+        <v>2.555956423938099</v>
       </c>
       <c r="R3">
-        <v>552.6342299192385</v>
+        <v>399.2509189078392</v>
       </c>
       <c r="S3">
-        <v>7.403941412603023</v>
+        <v>12.88361596549608</v>
       </c>
       <c r="T3">
-        <v>7.139969598269307</v>
+        <v>12.88361596549608</v>
       </c>
       <c r="U3">
-        <v>1.965708518396953</v>
+        <v>2.555956423938099</v>
       </c>
       <c r="V3">
-        <v>530.2250454447521</v>
+        <v>399.2509189078392</v>
       </c>
       <c r="W3">
-        <v>175.3261902629496</v>
+        <v>446.5871534731086</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>151.2662441962499</v>
+        <v>446.5871534731088</v>
       </c>
       <c r="Z3">
-        <v>1.159056940922555</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>996.6483001965246</v>
+        <v>614.5437998655553</v>
       </c>
       <c r="H4">
-        <v>104.5202190496242</v>
+        <v>62.59745102064366</v>
       </c>
       <c r="I4">
-        <v>892.1280811469004</v>
+        <v>551.9463488449117</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>911.580570287958</v>
+        <v>551.9463488449119</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.9786607023283604</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O4">
-        <v>1040.112745087449</v>
+        <v>614.5437998655553</v>
       </c>
       <c r="P4">
-        <v>128.5321747994915</v>
+        <v>62.59745102064366</v>
       </c>
       <c r="Q4">
-        <v>2.090905134459322</v>
+        <v>2.284155644951589</v>
       </c>
       <c r="R4">
-        <v>642.8319860564782</v>
+        <v>408.9640277365278</v>
       </c>
       <c r="S4">
-        <v>8.092236412478135</v>
+        <v>9.817393357804432</v>
       </c>
       <c r="T4">
-        <v>9.535459351872722</v>
+        <v>9.817393357804432</v>
       </c>
       <c r="U4">
-        <v>2.255017413232598</v>
+        <v>2.284155644951589</v>
       </c>
       <c r="V4">
-        <v>656.4331671551123</v>
+        <v>408.9640277365278</v>
       </c>
       <c r="W4">
-        <v>233.580473471828</v>
+        <v>573.7622057738167</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>214.1279843307703</v>
+        <v>573.7622057738165</v>
       </c>
       <c r="Z4">
-        <v>1.090845151332526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>963.432409857581</v>
+        <v>545.1922215644006</v>
       </c>
       <c r="H5">
-        <v>159.7821878338804</v>
+        <v>69.08038853556735</v>
       </c>
       <c r="I5">
-        <v>803.6502220237005</v>
+        <v>476.1118330288332</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>803.650222023701</v>
+        <v>476.1118330288332</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>963.4324098575811</v>
+        <v>545.1922215644006</v>
       </c>
       <c r="P5">
-        <v>159.7821878338804</v>
+        <v>69.08038853556735</v>
       </c>
       <c r="Q5">
-        <v>1.796690773003453</v>
+        <v>2.06586755490551</v>
       </c>
       <c r="R5">
-        <v>516.571039452263</v>
+        <v>333.4008996729381</v>
       </c>
       <c r="S5">
-        <v>6.029660895989394</v>
+        <v>7.892141794826443</v>
       </c>
       <c r="T5">
-        <v>6.029660895989394</v>
+        <v>7.892141794826443</v>
       </c>
       <c r="U5">
-        <v>1.796690773003453</v>
+        <v>2.06586755490551</v>
       </c>
       <c r="V5">
-        <v>516.571039452263</v>
+        <v>333.4008996729381</v>
       </c>
       <c r="W5">
-        <v>241.542671665246</v>
+        <v>569.0810606601133</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>241.5426716652455</v>
+        <v>569.0810606601133</v>
       </c>
       <c r="Z5">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>987.1771066683214</v>
+        <v>619.4099554160166</v>
       </c>
       <c r="H6">
-        <v>138.4708632166977</v>
+        <v>53.10131518302816</v>
       </c>
       <c r="I6">
-        <v>848.7062434516237</v>
+        <v>566.3086402329884</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>848.7062434516238</v>
+        <v>566.3086402329884</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>987.1771066683214</v>
+        <v>619.4099554160166</v>
       </c>
       <c r="P6">
-        <v>138.4708632166977</v>
+        <v>53.10131518302816</v>
       </c>
       <c r="Q6">
-        <v>1.964189533107382</v>
+        <v>2.456565644103617</v>
       </c>
       <c r="R6">
-        <v>576.723223281042</v>
+        <v>435.8617736976437</v>
       </c>
       <c r="S6">
-        <v>7.129132322396623</v>
+        <v>11.66468200045614</v>
       </c>
       <c r="T6">
-        <v>7.129132322396623</v>
+        <v>11.66468200045614</v>
       </c>
       <c r="U6">
-        <v>1.964189533107382</v>
+        <v>2.456565644103617</v>
       </c>
       <c r="V6">
-        <v>576.723223281042</v>
+        <v>435.8617736976437</v>
       </c>
       <c r="W6">
-        <v>179.3224487962221</v>
+        <v>461.7200520148574</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>179.322448796222</v>
+        <v>461.7200520148574</v>
       </c>
       <c r="Z6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>1015.337390270881</v>
+        <v>588.9215173437891</v>
       </c>
       <c r="H7">
-        <v>125.733076056684</v>
+        <v>52.3555157166066</v>
       </c>
       <c r="I7">
-        <v>889.604314214197</v>
+        <v>536.5660016271825</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>889.6043142141971</v>
+        <v>536.5660016271825</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1015.337390270881</v>
+        <v>588.9215173437891</v>
       </c>
       <c r="P7">
-        <v>125.733076056684</v>
+        <v>52.3555157166066</v>
       </c>
       <c r="Q7">
-        <v>2.088815024569283</v>
+        <v>2.420235633409122</v>
       </c>
       <c r="R7">
-        <v>626.9711758616828</v>
+        <v>409.8533168843398</v>
       </c>
       <c r="S7">
-        <v>8.075340412519122</v>
+        <v>11.24850952727775</v>
       </c>
       <c r="T7">
-        <v>8.075340412519123</v>
+        <v>11.24850952727775</v>
       </c>
       <c r="U7">
-        <v>2.088815024569284</v>
+        <v>2.420235633409122</v>
       </c>
       <c r="V7">
-        <v>626.9711758616829</v>
+        <v>409.8533168843398</v>
       </c>
       <c r="W7">
-        <v>160.9540012449155</v>
+        <v>513.99231383193</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>160.9540012449154</v>
+        <v>513.99231383193</v>
       </c>
       <c r="Z7">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>967.4018896866091</v>
+        <v>658.9055008379647</v>
       </c>
       <c r="H8">
-        <v>120.6424136739669</v>
+        <v>136.6283237824729</v>
       </c>
       <c r="I8">
-        <v>846.7594760126423</v>
+        <v>522.2771770554918</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>872.2969157683831</v>
+        <v>522.2771770554918</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.9707239137338396</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>991.3786179361476</v>
+        <v>658.9055008379647</v>
       </c>
       <c r="P8">
-        <v>119.0817021677646</v>
+        <v>136.6283237824729</v>
       </c>
       <c r="Q8">
-        <v>2.119286687442573</v>
+        <v>1.573315852424747</v>
       </c>
       <c r="R8">
-        <v>619.9286496462381</v>
+        <v>307.317669358306</v>
       </c>
       <c r="S8">
-        <v>8.325196901699258</v>
+        <v>4.822612783327515</v>
       </c>
       <c r="T8">
-        <v>8.018754434911994</v>
+        <v>4.822612783327515</v>
       </c>
       <c r="U8">
-        <v>2.081783102449403</v>
+        <v>1.573315852424747</v>
       </c>
       <c r="V8">
-        <v>595.6081377874672</v>
+        <v>307.317669358306</v>
       </c>
       <c r="W8">
-        <v>255.6192397671065</v>
+        <v>580.1015387242569</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>230.0818000113657</v>
+        <v>580.1015387242569</v>
       </c>
       <c r="Z8">
-        <v>1.110992871902425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1003.106052339646</v>
+        <v>563.1137811743922</v>
       </c>
       <c r="H9">
-        <v>255.9466994265325</v>
+        <v>122.9852233291296</v>
       </c>
       <c r="I9">
-        <v>747.1593529131135</v>
+        <v>440.1285578452625</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>775.9535713270766</v>
+        <v>440.1285578452625</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.9628918282253438</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>979.6674177494514</v>
+        <v>563.1137811743922</v>
       </c>
       <c r="P9">
-        <v>203.7138464223749</v>
+        <v>122.9852233291296</v>
       </c>
       <c r="Q9">
-        <v>1.570496848917593</v>
+        <v>1.521417493101302</v>
       </c>
       <c r="R9">
-        <v>456.0216174398542</v>
+        <v>253.0166876793543</v>
       </c>
       <c r="S9">
-        <v>4.809036965107589</v>
+        <v>4.578710888440661</v>
       </c>
       <c r="T9">
-        <v>3.919199015213633</v>
+        <v>4.578710888440661</v>
       </c>
       <c r="U9">
-        <v>1.365887300069905</v>
+        <v>1.521417493101302</v>
       </c>
       <c r="V9">
-        <v>397.5650066716036</v>
+        <v>253.0166876793543</v>
       </c>
       <c r="W9">
-        <v>315.1377822000877</v>
+        <v>622.1685772679386</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>286.3435637861246</v>
+        <v>622.1685772679386</v>
       </c>
       <c r="Z9">
-        <v>1.100558287510419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>844.7574702846596</v>
+        <v>460.4440461525583</v>
       </c>
       <c r="H10">
-        <v>207.4375638342257</v>
+        <v>67.8078102187566</v>
       </c>
       <c r="I10">
-        <v>637.3199064504339</v>
+        <v>392.6362359338017</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>682.7561740737708</v>
+        <v>392.6362359338016</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>0.9334516927877278</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>877.2903603115437</v>
+        <v>460.4440461525583</v>
       </c>
       <c r="P10">
-        <v>194.5341862377728</v>
+        <v>67.8078102187566</v>
       </c>
       <c r="Q10">
-        <v>1.506230108837336</v>
+        <v>1.915513958307733</v>
       </c>
       <c r="R10">
-        <v>389.7429255642678</v>
+        <v>262.7494289774917</v>
       </c>
       <c r="S10">
-        <v>4.509697638641572</v>
+        <v>6.790427897127297</v>
       </c>
       <c r="T10">
-        <v>4.072345696075326</v>
+        <v>6.790427897127297</v>
       </c>
       <c r="U10">
-        <v>1.404219171537531</v>
+        <v>1.915513958307733</v>
       </c>
       <c r="V10">
-        <v>346.0321024173738</v>
+        <v>262.7494289774917</v>
       </c>
       <c r="W10">
-        <v>329.4784890460564</v>
+        <v>574.1621595626887</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>284.0422214227195</v>
+        <v>574.1621595626888</v>
       </c>
       <c r="Z10">
-        <v>1.159963076600916</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>878.3382174523972</v>
+        <v>439.7345571645089</v>
       </c>
       <c r="H11">
-        <v>169.3594746306718</v>
+        <v>50.71571091189293</v>
       </c>
       <c r="I11">
-        <v>708.9787428217254</v>
+        <v>389.018846252616</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>752.2732868669984</v>
+        <v>391.3209032251618</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>0.942448383052943</v>
+        <v>0.9941172144049222</v>
       </c>
       <c r="O11">
-        <v>877.9226613709614</v>
+        <v>515.4063095281165</v>
       </c>
       <c r="P11">
-        <v>125.6493745039628</v>
+        <v>124.0854063029547</v>
       </c>
       <c r="Q11">
-        <v>1.94406321886156</v>
+        <v>1.423985451119811</v>
       </c>
       <c r="R11">
-        <v>508.0029594208831</v>
+        <v>214.6250899534638</v>
       </c>
       <c r="S11">
-        <v>6.987083420325925</v>
+        <v>4.153641631875316</v>
       </c>
       <c r="T11">
-        <v>5.18623607783279</v>
+        <v>8.670578589117053</v>
       </c>
       <c r="U11">
-        <v>1.646008208223215</v>
+        <v>2.159935523181372</v>
       </c>
       <c r="V11">
-        <v>430.2116574392682</v>
+        <v>279.4761806706213</v>
       </c>
       <c r="W11">
-        <v>309.8041706894763</v>
+        <v>629.7640672585858</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>266.5096266442033</v>
+        <v>627.4620102860399</v>
       </c>
       <c r="Z11">
-        <v>1.162450207110426</v>
+        <v>1.003668838805869</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>936.2690247768339</v>
+        <v>459.1092285496929</v>
       </c>
       <c r="H12">
-        <v>163.2592734413099</v>
+        <v>36.3474988627501</v>
       </c>
       <c r="I12">
-        <v>773.009751335524</v>
+        <v>422.7617296869428</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>779.33574134013</v>
+        <v>422.7617296869428</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.9918828437231328</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>907.3184647118813</v>
+        <v>459.1092285496929</v>
       </c>
       <c r="P12">
-        <v>127.9827233717513</v>
+        <v>36.3474988627501</v>
       </c>
       <c r="Q12">
-        <v>1.95859822609192</v>
+        <v>2.536162757911322</v>
       </c>
       <c r="R12">
-        <v>528.6690063738051</v>
+        <v>330.5785567280119</v>
       </c>
       <c r="S12">
-        <v>7.089382385436465</v>
+        <v>12.63110923486954</v>
       </c>
       <c r="T12">
-        <v>5.734859680809575</v>
+        <v>12.63110923486954</v>
       </c>
       <c r="U12">
-        <v>1.746563283117156</v>
+        <v>2.536162757911322</v>
       </c>
       <c r="V12">
-        <v>487.8670987145481</v>
+        <v>330.5785567280119</v>
       </c>
       <c r="W12">
-        <v>206.9120393115713</v>
+        <v>557.1600609601526</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>200.5860493069654</v>
+        <v>557.1600609601526</v>
       </c>
       <c r="Z12">
-        <v>1.031537537263746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>985.2958926698568</v>
+        <v>602.5605061983042</v>
       </c>
       <c r="H13">
-        <v>131.3499573540503</v>
+        <v>43.02414429659054</v>
       </c>
       <c r="I13">
-        <v>853.9459353158065</v>
+        <v>559.5363619017137</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>878.806259992645</v>
+        <v>559.5363619017139</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.9717112567256331</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O13">
-        <v>1010.403077700276</v>
+        <v>602.5605061983042</v>
       </c>
       <c r="P13">
-        <v>131.5968177076315</v>
+        <v>43.02414429659054</v>
       </c>
       <c r="Q13">
-        <v>2.038361780007407</v>
+        <v>2.639426632164311</v>
       </c>
       <c r="R13">
-        <v>610.5643364068067</v>
+        <v>445.9772896192123</v>
       </c>
       <c r="S13">
-        <v>7.678020603393978</v>
+        <v>14.00517119049487</v>
       </c>
       <c r="T13">
-        <v>7.50130348359397</v>
+        <v>14.00517119049487</v>
       </c>
       <c r="U13">
-        <v>2.015076803253704</v>
+        <v>2.639426632164311</v>
       </c>
       <c r="V13">
-        <v>589.2656831432965</v>
+        <v>445.9772896192123</v>
       </c>
       <c r="W13">
-        <v>220.4441123628631</v>
+        <v>514.8536857769559</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>195.5837876860246</v>
+        <v>514.8536857769557</v>
       </c>
       <c r="Z13">
-        <v>1.127108309798905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>940.059277111855</v>
+        <v>650.3515440062891</v>
       </c>
       <c r="H14">
-        <v>151.0564807521973</v>
+        <v>73.95324613879065</v>
       </c>
       <c r="I14">
-        <v>789.0027963596576</v>
+        <v>576.3982978674985</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>844.5454654022458</v>
+        <v>576.3982978674983</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>0.9342336542933969</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1041.684261489453</v>
+        <v>650.3515440062891</v>
       </c>
       <c r="P14">
-        <v>197.1387960872069</v>
+        <v>73.95324613879065</v>
       </c>
       <c r="Q14">
-        <v>1.664686135063498</v>
+        <v>2.174079969029318</v>
       </c>
       <c r="R14">
-        <v>516.3712448727624</v>
+        <v>415.618026792459</v>
       </c>
       <c r="S14">
-        <v>5.284014522583623</v>
+        <v>8.794090563458859</v>
       </c>
       <c r="T14">
-        <v>6.223230360132566</v>
+        <v>8.794090563458859</v>
       </c>
       <c r="U14">
-        <v>1.828289122438919</v>
+        <v>2.174079969029318</v>
       </c>
       <c r="V14">
-        <v>512.8278757265114</v>
+        <v>415.618026792459</v>
       </c>
       <c r="W14">
-        <v>275.8566055132728</v>
+        <v>488.4611040054319</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>220.3139364706847</v>
+        <v>488.4611040054322</v>
       </c>
       <c r="Z14">
-        <v>1.252106924928822</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>1095.641849524988</v>
+        <v>628.9323296970965</v>
       </c>
       <c r="H15">
-        <v>163.636083495897</v>
+        <v>50.79046218173238</v>
       </c>
       <c r="I15">
-        <v>932.0057660290914</v>
+        <v>578.1418675153641</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>932.0057660290917</v>
+        <v>578.1418675153641</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1095.641849524988</v>
+        <v>628.9323296970965</v>
       </c>
       <c r="P15">
-        <v>163.636083495897</v>
+        <v>50.79046218173238</v>
       </c>
       <c r="Q15">
-        <v>1.901450675358476</v>
+        <v>2.516315082336832</v>
       </c>
       <c r="R15">
-        <v>620.8598245528021</v>
+        <v>450.3370614886124</v>
       </c>
       <c r="S15">
-        <v>6.695600543094523</v>
+        <v>12.38288258623688</v>
       </c>
       <c r="T15">
-        <v>6.695600543094523</v>
+        <v>12.38288258623688</v>
       </c>
       <c r="U15">
-        <v>1.901450675358476</v>
+        <v>2.516315082336832</v>
       </c>
       <c r="V15">
-        <v>620.8598245528021</v>
+        <v>450.3370614886124</v>
       </c>
       <c r="W15">
-        <v>215.54300717493</v>
+        <v>569.4069056886574</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>215.5430071749298</v>
+        <v>569.4069056886574</v>
       </c>
       <c r="Z15">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>962.6431698152363</v>
+        <v>632.4080070080846</v>
       </c>
       <c r="H16">
-        <v>243.0690384406195</v>
+        <v>124.0563559862822</v>
       </c>
       <c r="I16">
-        <v>719.5741313746169</v>
+        <v>508.3516510218024</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>780.9453305191142</v>
+        <v>508.3516510218024</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.921414218452779</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>1028.066037583965</v>
+        <v>632.4080070080846</v>
       </c>
       <c r="P16">
-        <v>247.1207070648504</v>
+        <v>124.0563559862822</v>
       </c>
       <c r="Q16">
-        <v>1.425557773019891</v>
+        <v>1.628798820439356</v>
       </c>
       <c r="R16">
-        <v>428.660485688645</v>
+        <v>306.2888047233412</v>
       </c>
       <c r="S16">
-        <v>4.160177630578628</v>
+        <v>5.097747729088661</v>
       </c>
       <c r="T16">
-        <v>3.960369350168821</v>
+        <v>5.097747729088661</v>
       </c>
       <c r="U16">
-        <v>1.376337291161642</v>
+        <v>1.628798820439356</v>
       </c>
       <c r="V16">
-        <v>385.0291494419896</v>
+        <v>306.2888047233412</v>
       </c>
       <c r="W16">
-        <v>328.6829144325056</v>
+        <v>539.9053947853201</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>267.3117152880083</v>
+        <v>539.9053947853201</v>
       </c>
       <c r="Z16">
-        <v>1.229586642240407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1052.346607257196</v>
+        <v>633.5311703956719</v>
       </c>
       <c r="H17">
-        <v>143.2155764299567</v>
+        <v>102.300695493909</v>
       </c>
       <c r="I17">
-        <v>909.1310308272389</v>
+        <v>531.2304749017629</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>909.1310308272384</v>
+        <v>531.2304749017627</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>1052.346607257195</v>
+        <v>633.5311703956719</v>
       </c>
       <c r="P17">
-        <v>143.2155764299567</v>
+        <v>102.300695493909</v>
       </c>
       <c r="Q17">
-        <v>1.994426791048608</v>
+        <v>1.823392730510275</v>
       </c>
       <c r="R17">
-        <v>623.4980482998632</v>
+        <v>344.696130412024</v>
       </c>
       <c r="S17">
-        <v>7.347989886923177</v>
+        <v>6.192833463516311</v>
       </c>
       <c r="T17">
-        <v>7.34798988692318</v>
+        <v>6.192833463516311</v>
       </c>
       <c r="U17">
-        <v>1.994426791048609</v>
+        <v>1.823392730510275</v>
       </c>
       <c r="V17">
-        <v>623.4980482998635</v>
+        <v>344.696130412024</v>
       </c>
       <c r="W17">
-        <v>207.7600292672723</v>
+        <v>585.6605851927483</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>207.7600292672728</v>
+        <v>585.6605851927485</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999978</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>959.427699264628</v>
+        <v>587.2049647591274</v>
       </c>
       <c r="H18">
-        <v>139.236406985328</v>
+        <v>51.4710617294152</v>
       </c>
       <c r="I18">
-        <v>820.1912922793</v>
+        <v>535.7339030297122</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>834.2549985957237</v>
+        <v>535.7339030297123</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>0.9831421971218671</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O18">
-        <v>948.7061235429094</v>
+        <v>587.2049647591274</v>
       </c>
       <c r="P18">
-        <v>114.4511249471861</v>
+        <v>51.4710617294152</v>
       </c>
       <c r="Q18">
-        <v>2.114951205536611</v>
+        <v>2.434354190662392</v>
       </c>
       <c r="R18">
-        <v>592.1964539136509</v>
+        <v>410.4351082108677</v>
       </c>
       <c r="S18">
-        <v>8.289181290098229</v>
+        <v>11.40844865112906</v>
       </c>
       <c r="T18">
-        <v>6.890638160217159</v>
+        <v>11.40844865112906</v>
       </c>
       <c r="U18">
-        <v>1.930163701958135</v>
+        <v>2.434354190662392</v>
       </c>
       <c r="V18">
-        <v>551.4422335251497</v>
+        <v>410.4351082108677</v>
       </c>
       <c r="W18">
-        <v>292.8298443918603</v>
+        <v>577.2872336414481</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>278.7661380754366</v>
+        <v>577.287233641448</v>
       </c>
       <c r="Z18">
-        <v>1.050449837320693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>832.7042588829502</v>
+        <v>569.5295319469429</v>
       </c>
       <c r="H19">
-        <v>120.0768846569133</v>
+        <v>92.01709705104507</v>
       </c>
       <c r="I19">
-        <v>712.6273742260369</v>
+        <v>477.5124348958979</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>787.2133246551072</v>
+        <v>477.5124348958979</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.9052531911070639</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O19">
-        <v>955.0233123213148</v>
+        <v>569.5295319469429</v>
       </c>
       <c r="P19">
-        <v>167.8099876662077</v>
+        <v>92.01709705104507</v>
       </c>
       <c r="Q19">
-        <v>1.738903437475937</v>
+        <v>1.8228362401689</v>
       </c>
       <c r="R19">
-        <v>495.407960259544</v>
+        <v>309.7803356761141</v>
       </c>
       <c r="S19">
-        <v>5.691099353519768</v>
+        <v>6.189388170233247</v>
       </c>
       <c r="T19">
-        <v>6.934759019291461</v>
+        <v>6.189388170233247</v>
       </c>
       <c r="U19">
-        <v>1.93654630468309</v>
+        <v>1.8228362401689</v>
       </c>
       <c r="V19">
-        <v>480.0929269658337</v>
+        <v>309.7803356761141</v>
       </c>
       <c r="W19">
-        <v>329.2222489283918</v>
+        <v>564.3371882585308</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>254.6362984993215</v>
+        <v>564.3371882585307</v>
       </c>
       <c r="Z19">
-        <v>1.29291169746276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>1027.540691428226</v>
+        <v>596.1580166967849</v>
       </c>
       <c r="H20">
-        <v>148.4376389942235</v>
+        <v>60.43633703324576</v>
       </c>
       <c r="I20">
-        <v>879.1030524340026</v>
+        <v>535.7216796635391</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>879.1030524340025</v>
+        <v>535.7216796635391</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <v>1027.540691428226</v>
+        <v>596.1580166967849</v>
       </c>
       <c r="P20">
-        <v>148.4376389942236</v>
+        <v>60.43633703324576</v>
       </c>
       <c r="Q20">
-        <v>1.934758617338814</v>
+        <v>2.28891523005202</v>
       </c>
       <c r="R20">
-        <v>591.9120512525005</v>
+        <v>397.388027379586</v>
       </c>
       <c r="S20">
-        <v>6.922372912898546</v>
+        <v>9.86423145348536</v>
       </c>
       <c r="T20">
-        <v>6.922372912898547</v>
+        <v>9.86423145348536</v>
       </c>
       <c r="U20">
-        <v>1.934758617338814</v>
+        <v>2.28891523005202</v>
       </c>
       <c r="V20">
-        <v>591.9120512525005</v>
+        <v>397.388027379586</v>
       </c>
       <c r="W20">
-        <v>185.4331663164301</v>
+        <v>528.8145390868935</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>185.4331663164302</v>
+        <v>528.8145390868935</v>
       </c>
       <c r="Z20">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>721.5663182686798</v>
+        <v>520.7135389543884</v>
       </c>
       <c r="H21">
-        <v>136.0931577316011</v>
+        <v>73.65587006289044</v>
       </c>
       <c r="I21">
-        <v>585.4731605370787</v>
+        <v>447.0576688914979</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>743.7606768681932</v>
+        <v>447.0576688914981</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.7871795037650724</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="O21">
-        <v>912.6283812662734</v>
+        <v>520.7135389543884</v>
       </c>
       <c r="P21">
-        <v>168.8677043980802</v>
+        <v>73.65587006289044</v>
       </c>
       <c r="Q21">
-        <v>1.687213173207651</v>
+        <v>1.955796219403232</v>
       </c>
       <c r="R21">
-        <v>458.8448614784166</v>
+        <v>303.0017966856411</v>
       </c>
       <c r="S21">
-        <v>5.404398576502759</v>
+        <v>7.069545692825046</v>
       </c>
       <c r="T21">
-        <v>5.302002909593232</v>
+        <v>7.069545692825046</v>
       </c>
       <c r="U21">
-        <v>1.668084656639454</v>
+        <v>1.955796219403232</v>
       </c>
       <c r="V21">
-        <v>358.4582522513817</v>
+        <v>303.0017966856411</v>
       </c>
       <c r="W21">
-        <v>411.7448027035501</v>
+        <v>550.1602943491309</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>253.4572863724356</v>
+        <v>550.1602943491307</v>
       </c>
       <c r="Z21">
-        <v>1.624513576218611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>969.6339160770864</v>
+        <v>669.3754609036663</v>
       </c>
       <c r="H22">
-        <v>21.72204480212161</v>
+        <v>24.79740104808792</v>
       </c>
       <c r="I22">
-        <v>947.9118712749648</v>
+        <v>644.5780598555784</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>1000.729360832908</v>
+        <v>644.5780598555782</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.9472210053735373</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1036.769731819194</v>
+        <v>669.3754609036663</v>
       </c>
       <c r="P22">
-        <v>36.04037098628621</v>
+        <v>24.79740104808792</v>
       </c>
       <c r="Q22">
-        <v>3.359225404900346</v>
+        <v>3.295606278528671</v>
       </c>
       <c r="R22">
-        <v>879.6616310137418</v>
+        <v>562.8555892703064</v>
       </c>
       <c r="S22">
-        <v>28.7668995475573</v>
+        <v>26.99377485590493</v>
       </c>
       <c r="T22">
-        <v>44.63824308024545</v>
+        <v>26.99377485590493</v>
       </c>
       <c r="U22">
-        <v>3.798590959777145</v>
+        <v>3.295606278528671</v>
       </c>
       <c r="V22">
-        <v>865.3987082617516</v>
+        <v>562.8555892703064</v>
       </c>
       <c r="W22">
-        <v>88.85786054422988</v>
+        <v>392.1916719636163</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>36.04037098628635</v>
+        <v>392.1916719636165</v>
       </c>
       <c r="Z22">
-        <v>2.465509042014052</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>1011.411420017211</v>
+        <v>644.4050821907314</v>
       </c>
       <c r="H23">
-        <v>32.38513935194946</v>
+        <v>8.083726524303541</v>
       </c>
       <c r="I23">
-        <v>979.0262806652612</v>
+        <v>636.3213556664278</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>984.1184430635315</v>
+        <v>636.3213556664277</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>0.9948256610429752</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>1022.390911310949</v>
+        <v>644.405082190731</v>
       </c>
       <c r="P23">
-        <v>38.27246824741734</v>
+        <v>8.083726524303541</v>
       </c>
       <c r="Q23">
-        <v>3.285168401042013</v>
+        <v>4.37847456825939</v>
       </c>
       <c r="R23">
-        <v>858.3869397472324</v>
+        <v>600.9269646630006</v>
       </c>
       <c r="S23">
-        <v>26.71348251441663</v>
+        <v>79.71633877684279</v>
       </c>
       <c r="T23">
-        <v>31.23072619900051</v>
+        <v>79.71633877684283</v>
       </c>
       <c r="U23">
-        <v>3.441402424274731</v>
+        <v>4.37847456825939</v>
       </c>
       <c r="V23">
-        <v>867.5759835889874</v>
+        <v>600.9269646630009</v>
       </c>
       <c r="W23">
-        <v>47.88157810510154</v>
+        <v>390.5865031039349</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>42.78941570683128</v>
+        <v>390.586503103935</v>
       </c>
       <c r="Z23">
-        <v>1.1190051865433</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>833.0764576321308</v>
+        <v>475.5064093374828</v>
       </c>
       <c r="H24">
-        <v>38.12367605988477</v>
+        <v>15.31831292833941</v>
       </c>
       <c r="I24">
-        <v>794.952781572246</v>
+        <v>460.1880964091433</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>965.2294065297751</v>
+        <v>608.129293294249</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.8235894764440369</v>
+        <v>0.7567273957751564</v>
       </c>
       <c r="O24">
-        <v>1023.306255524124</v>
+        <v>623.4004120167189</v>
       </c>
       <c r="P24">
-        <v>58.07684899434899</v>
+        <v>15.27111872246999</v>
       </c>
       <c r="Q24">
-        <v>2.869026974970488</v>
+        <v>3.709225648936593</v>
       </c>
       <c r="R24">
-        <v>798.6053601437003</v>
+        <v>551.4852680409074</v>
       </c>
       <c r="S24">
-        <v>17.61986528614344</v>
+        <v>40.82218358367189</v>
       </c>
       <c r="T24">
-        <v>21.85194461110025</v>
+        <v>31.04169575082772</v>
       </c>
       <c r="U24">
-        <v>3.084289915801184</v>
+        <v>3.435331324970591</v>
       </c>
       <c r="V24">
-        <v>677.3683119474723</v>
+        <v>407.564616160717</v>
       </c>
       <c r="W24">
-        <v>250.9238155179293</v>
+        <v>585.6885006810319</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>80.64719056040008</v>
+        <v>437.7473037959262</v>
       </c>
       <c r="Z24">
-        <v>3.111377021001145</v>
+        <v>1.337960269777183</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>943.2721292287337</v>
+        <v>701.7509092685725</v>
       </c>
       <c r="H25">
-        <v>40.87468930226194</v>
+        <v>23.79939212823739</v>
       </c>
       <c r="I25">
-        <v>902.3974399264717</v>
+        <v>677.9515171403351</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>959.3909234840939</v>
+        <v>677.9515171403351</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
-        <v>0.9405940976065873</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>997.8073086360793</v>
+        <v>701.7509092685725</v>
       </c>
       <c r="P25">
-        <v>38.41638515198547</v>
+        <v>23.79939212823739</v>
       </c>
       <c r="Q25">
-        <v>3.257076114899807</v>
+        <v>3.383918471436072</v>
       </c>
       <c r="R25">
-        <v>834.2658329847703</v>
+        <v>597.4163145086424</v>
       </c>
       <c r="S25">
-        <v>25.97348253065683</v>
+        <v>29.48608542131471</v>
       </c>
       <c r="T25">
-        <v>23.07716940068666</v>
+        <v>29.48608542131471</v>
       </c>
       <c r="U25">
-        <v>3.138843791167452</v>
+        <v>3.383918471436072</v>
       </c>
       <c r="V25">
-        <v>774.0981751941681</v>
+        <v>597.4163145086424</v>
       </c>
       <c r="W25">
-        <v>122.7037456126487</v>
+        <v>347.1496683987854</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>65.71026205502653</v>
+        <v>347.1496683987854</v>
       </c>
       <c r="Z25">
-        <v>1.86734524829463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>914.2551974797884</v>
+        <v>680.5706999701894</v>
       </c>
       <c r="H26">
-        <v>28.85135963215376</v>
+        <v>41.8523331867104</v>
       </c>
       <c r="I26">
-        <v>885.4038378476347</v>
+        <v>638.7183667834789</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>958.7965423827778</v>
+        <v>638.7183667834788</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.9234533070459877</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>998.7501822846477</v>
+        <v>680.5706999701894</v>
       </c>
       <c r="P26">
-        <v>39.95363990186998</v>
+        <v>41.8523331867104</v>
       </c>
       <c r="Q26">
-        <v>3.218784900095323</v>
+        <v>2.788784164289214</v>
       </c>
       <c r="R26">
-        <v>830.1943695627926</v>
+        <v>522.0012427538251</v>
       </c>
       <c r="S26">
-        <v>24.99772698401636</v>
+        <v>16.26123678539133</v>
       </c>
       <c r="T26">
-        <v>31.68846144986821</v>
+        <v>16.26123678539133</v>
       </c>
       <c r="U26">
-        <v>3.455952622504303</v>
+        <v>2.788784164289214</v>
       </c>
       <c r="V26">
-        <v>785.6949058640781</v>
+        <v>522.0012427538251</v>
       </c>
       <c r="W26">
-        <v>118.3307816080498</v>
+        <v>365.0162526722056</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>44.93807707290671</v>
+        <v>365.0162526722057</v>
       </c>
       <c r="Z26">
-        <v>2.633196374114366</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>953.7169129943926</v>
+        <v>690.9750963363987</v>
       </c>
       <c r="H27">
-        <v>21.23645284254296</v>
+        <v>27.69964991882632</v>
       </c>
       <c r="I27">
-        <v>932.4804601518497</v>
+        <v>663.2754464175723</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>1024.121202969384</v>
+        <v>663.2754464175723</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.9105176784233868</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>1062.715931400235</v>
+        <v>690.9750963363987</v>
       </c>
       <c r="P27">
-        <v>38.59472843085153</v>
+        <v>27.69964991882632</v>
       </c>
       <c r="Q27">
-        <v>3.315467411707961</v>
+        <v>3.216684008280148</v>
       </c>
       <c r="R27">
-        <v>896.1616385931768</v>
+        <v>574.1744254887252</v>
       </c>
       <c r="S27">
-        <v>27.5352612806761</v>
+        <v>24.94526459219874</v>
       </c>
       <c r="T27">
-        <v>44.90942626180078</v>
+        <v>24.94526459219874</v>
       </c>
       <c r="U27">
-        <v>3.804647711729705</v>
+        <v>3.216684008280148</v>
       </c>
       <c r="V27">
-        <v>851.6832384392128</v>
+        <v>574.1744254887252</v>
       </c>
       <c r="W27">
-        <v>147.4799761833824</v>
+        <v>416.6849899176598</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>55.83923336584803</v>
+        <v>416.6849899176598</v>
       </c>
       <c r="Z27">
-        <v>2.641153312709752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>1040.919878118497</v>
+        <v>730.0040201670332</v>
       </c>
       <c r="H28">
-        <v>42.30164041554472</v>
+        <v>34.19222152594156</v>
       </c>
       <c r="I28">
-        <v>998.6182377029523</v>
+        <v>695.8117986410916</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>1008.36401857119</v>
+        <v>695.8117986410916</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
-        <v>0.9903350568953785</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>1050.433754446795</v>
+        <v>730.0040201670332</v>
       </c>
       <c r="P28">
-        <v>42.06973587560447</v>
+        <v>34.19222152594156</v>
       </c>
       <c r="Q28">
-        <v>3.217629837952286</v>
+        <v>3.061051863767357</v>
       </c>
       <c r="R28">
-        <v>872.9991811430734</v>
+        <v>591.1476352127619</v>
       </c>
       <c r="S28">
-        <v>24.96886972508718</v>
+        <v>21.3500026493798</v>
       </c>
       <c r="T28">
-        <v>24.60708066857821</v>
+        <v>21.3500026493798</v>
       </c>
       <c r="U28">
-        <v>3.203034233578643</v>
+        <v>3.061051863767357</v>
       </c>
       <c r="V28">
-        <v>863.1246353154287</v>
+        <v>591.1476352127619</v>
       </c>
       <c r="W28">
-        <v>59.79451344715005</v>
+        <v>362.6009525090108</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>50.048732578912</v>
+        <v>362.6009525090108</v>
       </c>
       <c r="Z28">
-        <v>1.194725827529635</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>991.5843171570513</v>
+        <v>539.7526243629977</v>
       </c>
       <c r="H29">
-        <v>44.87088429928183</v>
+        <v>31.98169836903127</v>
       </c>
       <c r="I29">
-        <v>946.7134328577695</v>
+        <v>507.7709259939664</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>946.7134328577694</v>
+        <v>578.3340644272032</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.8779889638644677</v>
       </c>
       <c r="O29">
-        <v>991.5843171570513</v>
+        <v>606.8227363160931</v>
       </c>
       <c r="P29">
-        <v>44.87088429928183</v>
+        <v>28.48867188889009</v>
       </c>
       <c r="Q29">
-        <v>3.095514856518031</v>
+        <v>3.058730185304895</v>
       </c>
       <c r="R29">
-        <v>807.814943884241</v>
+        <v>491.194903781408</v>
       </c>
       <c r="S29">
-        <v>22.09861322418649</v>
+        <v>21.30049230384586</v>
       </c>
       <c r="T29">
-        <v>22.09861322418649</v>
+        <v>16.87692186121218</v>
       </c>
       <c r="U29">
-        <v>3.095514856518031</v>
+        <v>2.825947118345672</v>
       </c>
       <c r="V29">
-        <v>807.814943884241</v>
+        <v>417.392337648202</v>
       </c>
       <c r="W29">
-        <v>44.87088429928178</v>
+        <v>483.8133911630848</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>44.8708842992819</v>
+        <v>413.2502527298481</v>
       </c>
       <c r="Z29">
-        <v>0.9999999999999974</v>
+        <v>1.170751591722233</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1036.10546198802</v>
+        <v>655.9578028825431</v>
       </c>
       <c r="H30">
-        <v>20.80324367018</v>
+        <v>26.05950797221007</v>
       </c>
       <c r="I30">
-        <v>1015.30221831784</v>
+        <v>629.898294910333</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>1017.159542863194</v>
+        <v>649.8648544697025</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.9981740086317971</v>
+        <v>0.9692758280094059</v>
       </c>
       <c r="O30">
-        <v>1055.333187833389</v>
+        <v>664.6292723477798</v>
       </c>
       <c r="P30">
-        <v>38.17364497019444</v>
+        <v>14.764417878077</v>
       </c>
       <c r="Q30">
-        <v>3.319466458641325</v>
+        <v>3.807009311392282</v>
       </c>
       <c r="R30">
-        <v>890.4434087805516</v>
+        <v>593.6565781305769</v>
       </c>
       <c r="S30">
-        <v>27.64559655378419</v>
+        <v>45.01560967971903</v>
       </c>
       <c r="T30">
-        <v>49.8049957215665</v>
+        <v>25.17153445805877</v>
       </c>
       <c r="U30">
-        <v>3.908115294693431</v>
+        <v>3.225713771057733</v>
       </c>
       <c r="V30">
-        <v>934.0007435511753</v>
+        <v>545.8377811773862</v>
       </c>
       <c r="W30">
-        <v>50.01039346772939</v>
+        <v>435.4143168752365</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>48.15306892237595</v>
+        <v>415.447757315867</v>
       </c>
       <c r="Z30">
-        <v>1.038571260086195</v>
+        <v>1.048060337810871</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>1178.020423444158</v>
+        <v>803.436774448155</v>
       </c>
       <c r="H31">
-        <v>39.27047428628013</v>
+        <v>23.82225208614589</v>
       </c>
       <c r="I31">
-        <v>1138.749949157878</v>
+        <v>779.6145223620091</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>1138.749949157878</v>
+        <v>779.614522362009</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31">
-        <v>1178.020423444158</v>
+        <v>803.4367744481551</v>
       </c>
       <c r="P31">
-        <v>39.27047428628014</v>
+        <v>23.82225208614589</v>
       </c>
       <c r="Q31">
-        <v>3.40111775536048</v>
+        <v>3.518278388924488</v>
       </c>
       <c r="R31">
-        <v>1005.186441801383</v>
+        <v>695.8012076718109</v>
       </c>
       <c r="S31">
-        <v>29.99761130605242</v>
+        <v>33.72631485649516</v>
       </c>
       <c r="T31">
-        <v>29.99761130605243</v>
+        <v>33.72631485649516</v>
       </c>
       <c r="U31">
-        <v>3.40111775536048</v>
+        <v>3.518278388924488</v>
       </c>
       <c r="V31">
-        <v>1005.186441801383</v>
+        <v>695.8012076718107</v>
       </c>
       <c r="W31">
-        <v>42.12203025709005</v>
+        <v>401.2574570529588</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>42.12203025709005</v>
+        <v>401.2574570529589</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/results/Winner_determination/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Winner_determination/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>472.2826626326101</v>
+        <v>746.1224678182858</v>
       </c>
       <c r="H2">
-        <v>71.59391356899059</v>
+        <v>129.6250750476243</v>
       </c>
       <c r="I2">
-        <v>400.6887490636195</v>
+        <v>616.4973927706616</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>400.6887490636194</v>
+        <v>616.4973927706617</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O2">
-        <v>472.2826626326101</v>
+        <v>746.1224678182858</v>
       </c>
       <c r="P2">
-        <v>71.59391356899059</v>
+        <v>129.6250750476243</v>
       </c>
       <c r="Q2">
-        <v>1.886567603515629</v>
+        <v>1.750243507197239</v>
       </c>
       <c r="R2">
-        <v>265.6219911154639</v>
+        <v>389.6219467986023</v>
       </c>
       <c r="S2">
-        <v>6.596687331214278</v>
+        <v>5.756004133800195</v>
       </c>
       <c r="T2">
-        <v>6.596687331214278</v>
+        <v>5.756004133800195</v>
       </c>
       <c r="U2">
-        <v>1.886567603515629</v>
+        <v>1.750243507197239</v>
       </c>
       <c r="V2">
-        <v>265.6219911154639</v>
+        <v>389.6219467986023</v>
       </c>
       <c r="W2">
-        <v>543.6050877539465</v>
+        <v>327.7964440469044</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>543.6050877539466</v>
+        <v>327.7964440469043</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>551.4561814957559</v>
+        <v>874.1214368550307</v>
       </c>
       <c r="H3">
-        <v>42.80290432225114</v>
+        <v>102.8802836704712</v>
       </c>
       <c r="I3">
-        <v>508.6532771735048</v>
+        <v>771.2411531845595</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>508.6532771735046</v>
+        <v>771.2411531845593</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>551.4561814957559</v>
+        <v>874.1214368550305</v>
       </c>
       <c r="P3">
-        <v>42.80290432225114</v>
+        <v>102.8802836704712</v>
       </c>
       <c r="Q3">
-        <v>2.555956423938099</v>
+        <v>2.139653291993667</v>
       </c>
       <c r="R3">
-        <v>399.2509189078392</v>
+        <v>551.1130155477933</v>
       </c>
       <c r="S3">
-        <v>12.88361596549608</v>
+        <v>8.496491316595405</v>
       </c>
       <c r="T3">
-        <v>12.88361596549608</v>
+        <v>8.496491316595407</v>
       </c>
       <c r="U3">
-        <v>2.555956423938099</v>
+        <v>2.139653291993667</v>
       </c>
       <c r="V3">
-        <v>399.2509189078392</v>
+        <v>551.1130155477936</v>
       </c>
       <c r="W3">
-        <v>446.5871534731086</v>
+        <v>183.9992774620539</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>446.5871534731088</v>
+        <v>183.9992774620541</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,64 +799,64 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>614.5437998655553</v>
+        <v>975.083131777721</v>
       </c>
       <c r="H4">
-        <v>62.59745102064366</v>
+        <v>111.6589386512137</v>
       </c>
       <c r="I4">
-        <v>551.9463488449117</v>
+        <v>863.4241931265072</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>551.9463488449119</v>
+        <v>863.4241931265074</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O4">
-        <v>614.5437998655553</v>
+        <v>975.083131777721</v>
       </c>
       <c r="P4">
-        <v>62.59745102064366</v>
+        <v>111.6589386512137</v>
       </c>
       <c r="Q4">
-        <v>2.284155644951589</v>
+        <v>2.167073696071329</v>
       </c>
       <c r="R4">
-        <v>408.9640277365278</v>
+        <v>621.4510442442198</v>
       </c>
       <c r="S4">
-        <v>9.817393357804432</v>
+        <v>8.732692102900639</v>
       </c>
       <c r="T4">
-        <v>9.817393357804432</v>
+        <v>8.732692102900639</v>
       </c>
       <c r="U4">
-        <v>2.284155644951589</v>
+        <v>2.167073696071329</v>
       </c>
       <c r="V4">
-        <v>408.9640277365278</v>
+        <v>621.4510442442198</v>
       </c>
       <c r="W4">
-        <v>573.7622057738167</v>
+        <v>262.2843614922211</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>573.7622057738165</v>
+        <v>262.284361492221</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>545.1922215644006</v>
+        <v>903.1902108208071</v>
       </c>
       <c r="H5">
-        <v>69.08038853556735</v>
+        <v>200.0757758534903</v>
       </c>
       <c r="I5">
-        <v>476.1118330288332</v>
+        <v>703.1144349673168</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>476.1118330288332</v>
+        <v>720.2451290567108</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.9762154669316131</v>
       </c>
       <c r="O5">
-        <v>545.1922215644006</v>
+        <v>864.4555562860764</v>
       </c>
       <c r="P5">
-        <v>69.08038853556735</v>
+        <v>144.2104272293659</v>
       </c>
       <c r="Q5">
-        <v>2.06586755490551</v>
+        <v>1.790826360949313</v>
       </c>
       <c r="R5">
-        <v>333.4008996729381</v>
+        <v>461.9892944505995</v>
       </c>
       <c r="S5">
-        <v>7.892141794826443</v>
+        <v>5.994403961588468</v>
       </c>
       <c r="T5">
-        <v>7.892141794826443</v>
+        <v>4.514240701893804</v>
       </c>
       <c r="U5">
-        <v>2.06586755490551</v>
+        <v>1.507237000388367</v>
       </c>
       <c r="V5">
-        <v>333.4008996729381</v>
+        <v>401.5528227195268</v>
       </c>
       <c r="W5">
-        <v>569.0810606601133</v>
+        <v>342.0784587216297</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>569.0810606601133</v>
+        <v>324.9477646322357</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>1.05271830107458</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>619.4099554160166</v>
+        <v>956.0829424484776</v>
       </c>
       <c r="H6">
-        <v>53.10131518302816</v>
+        <v>116.0337170618416</v>
       </c>
       <c r="I6">
-        <v>566.3086402329884</v>
+        <v>840.0492253866361</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>566.3086402329884</v>
+        <v>840.0492253866362</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O6">
-        <v>619.4099554160166</v>
+        <v>956.0829424484776</v>
       </c>
       <c r="P6">
-        <v>53.10131518302816</v>
+        <v>116.0337170618416</v>
       </c>
       <c r="Q6">
-        <v>2.456565644103617</v>
+        <v>2.108963855973431</v>
       </c>
       <c r="R6">
-        <v>435.8617736976437</v>
+        <v>595.3383100289645</v>
       </c>
       <c r="S6">
-        <v>11.66468200045614</v>
+        <v>8.239699344794078</v>
       </c>
       <c r="T6">
-        <v>11.66468200045614</v>
+        <v>8.239699344794078</v>
       </c>
       <c r="U6">
-        <v>2.456565644103617</v>
+        <v>2.108963855973431</v>
       </c>
       <c r="V6">
-        <v>435.8617736976437</v>
+        <v>595.3383100289645</v>
       </c>
       <c r="W6">
-        <v>461.7200520148574</v>
+        <v>187.9794668612097</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>461.7200520148574</v>
+        <v>187.9794668612096</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>588.9215173437891</v>
+        <v>953.794721103137</v>
       </c>
       <c r="H7">
-        <v>52.3555157166066</v>
+        <v>97.02740933693227</v>
       </c>
       <c r="I7">
-        <v>536.5660016271825</v>
+        <v>856.7673117662048</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>536.5660016271825</v>
+        <v>856.767311766205</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O7">
-        <v>588.9215173437891</v>
+        <v>953.794721103137</v>
       </c>
       <c r="P7">
-        <v>52.3555157166066</v>
+        <v>97.02740933693227</v>
       </c>
       <c r="Q7">
-        <v>2.420235633409122</v>
+        <v>2.285454962181948</v>
       </c>
       <c r="R7">
-        <v>409.8533168843398</v>
+        <v>635.0155376294539</v>
       </c>
       <c r="S7">
-        <v>11.24850952727775</v>
+        <v>9.830157556727499</v>
       </c>
       <c r="T7">
-        <v>11.24850952727775</v>
+        <v>9.830157556727499</v>
       </c>
       <c r="U7">
-        <v>2.420235633409122</v>
+        <v>2.285454962181948</v>
       </c>
       <c r="V7">
-        <v>409.8533168843398</v>
+        <v>635.0155376294539</v>
       </c>
       <c r="W7">
-        <v>513.99231383193</v>
+        <v>193.7910036929077</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>513.99231383193</v>
+        <v>193.7910036929075</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>658.9055008379647</v>
+        <v>939.3028220279808</v>
       </c>
       <c r="H8">
-        <v>136.6283237824729</v>
+        <v>110.0789550569435</v>
       </c>
       <c r="I8">
-        <v>522.2771770554918</v>
+        <v>829.2238669710373</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>522.2771770554918</v>
+        <v>829.2238669710372</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>658.9055008379647</v>
+        <v>939.3028220279808</v>
       </c>
       <c r="P8">
-        <v>136.6283237824729</v>
+        <v>110.0789550569435</v>
       </c>
       <c r="Q8">
-        <v>1.573315852424747</v>
+        <v>2.143940039829358</v>
       </c>
       <c r="R8">
-        <v>307.317669358306</v>
+        <v>593.2211876818798</v>
       </c>
       <c r="S8">
-        <v>4.822612783327515</v>
+        <v>8.532991810669737</v>
       </c>
       <c r="T8">
-        <v>4.822612783327515</v>
+        <v>8.532991810669737</v>
       </c>
       <c r="U8">
-        <v>1.573315852424747</v>
+        <v>2.143940039829358</v>
       </c>
       <c r="V8">
-        <v>307.317669358306</v>
+        <v>593.2211876818798</v>
       </c>
       <c r="W8">
-        <v>580.1015387242569</v>
+        <v>273.1548488087114</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>580.1015387242569</v>
+        <v>273.1548488087116</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>563.1137811743922</v>
+        <v>842.8187142127845</v>
       </c>
       <c r="H9">
-        <v>122.9852233291296</v>
+        <v>188.131982361215</v>
       </c>
       <c r="I9">
-        <v>440.1285578452625</v>
+        <v>654.6867318515694</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>440.1285578452625</v>
+        <v>704.7332243495372</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.9289851950088486</v>
       </c>
       <c r="O9">
-        <v>563.1137811743922</v>
+        <v>868.9779672942063</v>
       </c>
       <c r="P9">
-        <v>122.9852233291296</v>
+        <v>164.2447429446693</v>
       </c>
       <c r="Q9">
-        <v>1.521417493101302</v>
+        <v>1.665960120424794</v>
       </c>
       <c r="R9">
-        <v>253.0166876793543</v>
+        <v>431.1080326142963</v>
       </c>
       <c r="S9">
-        <v>4.578710888440661</v>
+        <v>5.29075056963587</v>
       </c>
       <c r="T9">
-        <v>4.578710888440661</v>
+        <v>4.479933202397057</v>
       </c>
       <c r="U9">
-        <v>1.521417493101302</v>
+        <v>1.499608136136508</v>
       </c>
       <c r="V9">
-        <v>253.0166876793543</v>
+        <v>372.5624804352015</v>
       </c>
       <c r="W9">
-        <v>622.1685772679386</v>
+        <v>407.6104032616317</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>622.1685772679386</v>
+        <v>357.563910763664</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>1.139965167041275</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>460.4440461525583</v>
+        <v>799.3622001080968</v>
       </c>
       <c r="H10">
-        <v>67.8078102187566</v>
+        <v>167.5306727104545</v>
       </c>
       <c r="I10">
-        <v>392.6362359338017</v>
+        <v>631.8315273976423</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>392.6362359338016</v>
+        <v>631.8315273976423</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>460.4440461525583</v>
+        <v>799.3622001080968</v>
       </c>
       <c r="P10">
-        <v>67.8078102187566</v>
+        <v>167.5306727104545</v>
       </c>
       <c r="Q10">
-        <v>1.915513958307733</v>
+        <v>1.562647704670352</v>
       </c>
       <c r="R10">
-        <v>262.7494289774917</v>
+        <v>370.0401062247707</v>
       </c>
       <c r="S10">
-        <v>6.790427897127297</v>
+        <v>4.771437893582898</v>
       </c>
       <c r="T10">
-        <v>6.790427897127297</v>
+        <v>4.771437893582898</v>
       </c>
       <c r="U10">
-        <v>1.915513958307733</v>
+        <v>1.562647704670352</v>
       </c>
       <c r="V10">
-        <v>262.7494289774917</v>
+        <v>370.0401062247707</v>
       </c>
       <c r="W10">
-        <v>574.1621595626887</v>
+        <v>334.9668680988481</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>574.1621595626888</v>
+        <v>334.9668680988481</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>439.7345571645089</v>
+        <v>803.0573855258588</v>
       </c>
       <c r="H11">
-        <v>50.71571091189293</v>
+        <v>136.9242130898632</v>
       </c>
       <c r="I11">
-        <v>389.018846252616</v>
+        <v>666.1331724359956</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>391.3209032251618</v>
+        <v>669.8932766788364</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.9941172144049222</v>
+        <v>0.9943870100301909</v>
       </c>
       <c r="O11">
-        <v>515.4063095281165</v>
+        <v>872.1470592344257</v>
       </c>
       <c r="P11">
-        <v>124.0854063029547</v>
+        <v>202.2537825555894</v>
       </c>
       <c r="Q11">
-        <v>1.423985451119811</v>
+        <v>1.461434797460967</v>
       </c>
       <c r="R11">
-        <v>214.6250899534638</v>
+        <v>374.3125609339941</v>
       </c>
       <c r="S11">
-        <v>4.153641631875316</v>
+        <v>4.312142142482385</v>
       </c>
       <c r="T11">
-        <v>8.670578589117053</v>
+        <v>5.86497718266099</v>
       </c>
       <c r="U11">
-        <v>2.159935523181372</v>
+        <v>1.768998591673487</v>
       </c>
       <c r="V11">
-        <v>279.4761806706213</v>
+        <v>423.9144323140271</v>
       </c>
       <c r="W11">
-        <v>629.7640672585858</v>
+        <v>352.6497410752062</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>627.4620102860399</v>
+        <v>348.8896368323653</v>
       </c>
       <c r="Z11">
-        <v>1.003668838805869</v>
+        <v>1.010777345744573</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,64 +1439,64 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>459.1092285496929</v>
+        <v>862.8958201944826</v>
       </c>
       <c r="H12">
-        <v>36.3474988627501</v>
+        <v>114.5512528823436</v>
       </c>
       <c r="I12">
-        <v>422.7617296869428</v>
+        <v>748.3445673121389</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>422.7617296869428</v>
+        <v>748.3445673121389</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>459.1092285496929</v>
+        <v>862.8958201944826</v>
       </c>
       <c r="P12">
-        <v>36.3474988627501</v>
+        <v>114.5512528823436</v>
       </c>
       <c r="Q12">
-        <v>2.536162757911322</v>
+        <v>2.019271619330258</v>
       </c>
       <c r="R12">
-        <v>330.5785567280119</v>
+        <v>517.0344734080991</v>
       </c>
       <c r="S12">
-        <v>12.63110923486954</v>
+        <v>7.532836162698011</v>
       </c>
       <c r="T12">
-        <v>12.63110923486954</v>
+        <v>7.532836162698011</v>
       </c>
       <c r="U12">
-        <v>2.536162757911322</v>
+        <v>2.019271619330258</v>
       </c>
       <c r="V12">
-        <v>330.5785567280119</v>
+        <v>517.0344734080991</v>
       </c>
       <c r="W12">
-        <v>557.1600609601526</v>
+        <v>231.5772233349564</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>557.1600609601526</v>
+        <v>231.5772233349564</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>602.5605061983042</v>
+        <v>943.490178526396</v>
       </c>
       <c r="H13">
-        <v>43.02414429659054</v>
+        <v>100.1770285752892</v>
       </c>
       <c r="I13">
-        <v>559.5363619017137</v>
+        <v>843.3131499511069</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>559.5363619017139</v>
+        <v>843.3131499511071</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O13">
-        <v>602.5605061983042</v>
+        <v>943.490178526396</v>
       </c>
       <c r="P13">
-        <v>43.02414429659054</v>
+        <v>100.1770285752892</v>
       </c>
       <c r="Q13">
-        <v>2.639426632164311</v>
+        <v>2.242647048505448</v>
       </c>
       <c r="R13">
-        <v>445.9772896192123</v>
+        <v>618.6514324886887</v>
       </c>
       <c r="S13">
-        <v>14.00517119049487</v>
+        <v>9.418228828950594</v>
       </c>
       <c r="T13">
-        <v>14.00517119049487</v>
+        <v>9.418228828950594</v>
       </c>
       <c r="U13">
-        <v>2.639426632164311</v>
+        <v>2.242647048505448</v>
       </c>
       <c r="V13">
-        <v>445.9772896192123</v>
+        <v>618.6514324886887</v>
       </c>
       <c r="W13">
-        <v>514.8536857769559</v>
+        <v>231.0768977275627</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>514.8536857769557</v>
+        <v>231.0768977275625</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>650.3515440062891</v>
+        <v>889.0351470390565</v>
       </c>
       <c r="H14">
-        <v>73.95324613879065</v>
+        <v>125.6360708971707</v>
       </c>
       <c r="I14">
-        <v>576.3982978674985</v>
+        <v>763.3990761418858</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K14">
-        <v>576.3982978674983</v>
+        <v>795.4259820782245</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.9597361581618676</v>
       </c>
       <c r="O14">
-        <v>650.3515440062891</v>
+        <v>957.4347023353964</v>
       </c>
       <c r="P14">
-        <v>73.95324613879065</v>
+        <v>162.0087202571721</v>
       </c>
       <c r="Q14">
-        <v>2.174079969029318</v>
+        <v>1.77660736020334</v>
       </c>
       <c r="R14">
-        <v>415.618026792459</v>
+        <v>507.6000972522086</v>
       </c>
       <c r="S14">
-        <v>8.794090563458859</v>
+        <v>5.909772639494763</v>
       </c>
       <c r="T14">
-        <v>8.794090563458859</v>
+        <v>7.076273085352251</v>
       </c>
       <c r="U14">
-        <v>2.174079969029318</v>
+        <v>1.956747368734335</v>
       </c>
       <c r="V14">
-        <v>415.618026792459</v>
+        <v>517.5610249957266</v>
       </c>
       <c r="W14">
-        <v>488.4611040054319</v>
+        <v>301.4603257310447</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>488.4611040054322</v>
+        <v>269.433419794706</v>
       </c>
       <c r="Z14">
-        <v>0.9999999999999996</v>
+        <v>1.118867607295122</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,64 +1679,64 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>628.9323296970965</v>
+        <v>971.1190864791374</v>
       </c>
       <c r="H15">
-        <v>50.79046218173238</v>
+        <v>116.1171878597252</v>
       </c>
       <c r="I15">
-        <v>578.1418675153641</v>
+        <v>855.0018986194121</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K15">
-        <v>578.1418675153641</v>
+        <v>855.0018986194123</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O15">
-        <v>628.9323296970965</v>
+        <v>971.1190864791371</v>
       </c>
       <c r="P15">
-        <v>50.79046218173238</v>
+        <v>116.1171878597252</v>
       </c>
       <c r="Q15">
-        <v>2.516315082336832</v>
+        <v>2.123849182573948</v>
       </c>
       <c r="R15">
-        <v>450.3370614886124</v>
+        <v>608.3865041007488</v>
       </c>
       <c r="S15">
-        <v>12.38288258623688</v>
+        <v>8.363267354117225</v>
       </c>
       <c r="T15">
-        <v>12.38288258623688</v>
+        <v>8.363267354117227</v>
       </c>
       <c r="U15">
-        <v>2.516315082336832</v>
+        <v>2.123849182573948</v>
       </c>
       <c r="V15">
-        <v>450.3370614886124</v>
+        <v>608.3865041007491</v>
       </c>
       <c r="W15">
-        <v>569.4069056886574</v>
+        <v>292.5468745846093</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>569.4069056886574</v>
+        <v>292.5468745846092</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>632.4080070080846</v>
+        <v>917.2839451201476</v>
       </c>
       <c r="H16">
-        <v>124.0563559862822</v>
+        <v>229.0173266232561</v>
       </c>
       <c r="I16">
-        <v>508.3516510218024</v>
+        <v>688.2666184968914</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>508.3516510218024</v>
+        <v>727.451038638618</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9461346289159777</v>
       </c>
       <c r="O16">
-        <v>632.4080070080846</v>
+        <v>938.0741452307429</v>
       </c>
       <c r="P16">
-        <v>124.0563559862822</v>
+        <v>210.6231065921253</v>
       </c>
       <c r="Q16">
-        <v>1.628798820439356</v>
+        <v>1.493758680377828</v>
       </c>
       <c r="R16">
-        <v>306.2888047233412</v>
+        <v>412.830944878486</v>
       </c>
       <c r="S16">
-        <v>5.097747729088661</v>
+        <v>4.453804525100549</v>
       </c>
       <c r="T16">
-        <v>5.097747729088661</v>
+        <v>4.005303697519451</v>
       </c>
       <c r="U16">
-        <v>1.628798820439356</v>
+        <v>1.387619407238276</v>
       </c>
       <c r="V16">
-        <v>306.2888047233412</v>
+        <v>370.4777314806341</v>
       </c>
       <c r="W16">
-        <v>539.9053947853201</v>
+        <v>359.9904273102311</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>539.9053947853201</v>
+        <v>320.8060071685045</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>1.122143660860892</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>633.5311703956719</v>
+        <v>955.75553421697</v>
       </c>
       <c r="H17">
-        <v>102.300695493909</v>
+        <v>116.9295785285421</v>
       </c>
       <c r="I17">
-        <v>531.2304749017629</v>
+        <v>838.8259556884279</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K17">
-        <v>531.2304749017627</v>
+        <v>838.8259556884279</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17">
-        <v>633.5311703956719</v>
+        <v>955.7555342169704</v>
       </c>
       <c r="P17">
-        <v>102.300695493909</v>
+        <v>116.9295785285421</v>
       </c>
       <c r="Q17">
-        <v>1.823392730510275</v>
+        <v>2.100930302334827</v>
       </c>
       <c r="R17">
-        <v>344.696130412024</v>
+        <v>593.1650609185746</v>
       </c>
       <c r="S17">
-        <v>6.192833463516311</v>
+        <v>8.17377045435663</v>
       </c>
       <c r="T17">
-        <v>6.192833463516311</v>
+        <v>8.173770454356625</v>
       </c>
       <c r="U17">
-        <v>1.823392730510275</v>
+        <v>2.100930302334827</v>
       </c>
       <c r="V17">
-        <v>344.696130412024</v>
+        <v>593.1650609185742</v>
       </c>
       <c r="W17">
-        <v>585.6605851927483</v>
+        <v>278.0651044060833</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>585.6605851927485</v>
+        <v>278.0651044060833</v>
       </c>
       <c r="Z17">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>587.2049647591274</v>
+        <v>871.0917501615635</v>
       </c>
       <c r="H18">
-        <v>51.4710617294152</v>
+        <v>85.98400489538969</v>
       </c>
       <c r="I18">
-        <v>535.7339030297122</v>
+        <v>785.1077452661738</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>535.7339030297123</v>
+        <v>785.1077452661741</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O18">
-        <v>587.2049647591274</v>
+        <v>871.0917501615638</v>
       </c>
       <c r="P18">
-        <v>51.4710617294152</v>
+        <v>85.98400489538969</v>
       </c>
       <c r="Q18">
-        <v>2.434354190662392</v>
+        <v>2.315586020814597</v>
       </c>
       <c r="R18">
-        <v>410.4351082108677</v>
+        <v>586.0043855167559</v>
       </c>
       <c r="S18">
-        <v>11.40844865112906</v>
+        <v>10.13085807321206</v>
       </c>
       <c r="T18">
-        <v>11.40844865112906</v>
+        <v>10.13085807321206</v>
       </c>
       <c r="U18">
-        <v>2.434354190662392</v>
+        <v>2.315586020814597</v>
       </c>
       <c r="V18">
-        <v>410.4351082108677</v>
+        <v>586.0043855167555</v>
       </c>
       <c r="W18">
-        <v>577.2872336414481</v>
+        <v>327.9133914049866</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>577.287233641448</v>
+        <v>327.9133914049862</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>569.5295319469429</v>
+        <v>895.2102970437448</v>
       </c>
       <c r="H19">
-        <v>92.01709705104507</v>
+        <v>166.7568686207501</v>
       </c>
       <c r="I19">
-        <v>477.5124348958979</v>
+        <v>728.4534284229948</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>477.5124348958979</v>
+        <v>736.5488908300896</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N19">
-        <v>0.9999999999999999</v>
+        <v>0.9890089272988094</v>
       </c>
       <c r="O19">
-        <v>569.5295319469429</v>
+        <v>857.7714374842921</v>
       </c>
       <c r="P19">
-        <v>92.01709705104507</v>
+        <v>121.2225466542023</v>
       </c>
       <c r="Q19">
-        <v>1.8228362401689</v>
+        <v>1.956709589287351</v>
       </c>
       <c r="R19">
-        <v>309.7803356761141</v>
+        <v>499.3515713539787</v>
       </c>
       <c r="S19">
-        <v>6.189388170233247</v>
+        <v>7.07600575271825</v>
       </c>
       <c r="T19">
-        <v>6.189388170233247</v>
+        <v>5.368356364856512</v>
       </c>
       <c r="U19">
-        <v>1.8228362401689</v>
+        <v>1.680521784361642</v>
       </c>
       <c r="V19">
-        <v>309.7803356761141</v>
+        <v>448.214878013892</v>
       </c>
       <c r="W19">
-        <v>564.3371882585308</v>
+        <v>313.3961947314339</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>564.3371882585307</v>
+        <v>305.300732324339</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>1.026516354367911</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>596.1580166967849</v>
+        <v>886.553493703183</v>
       </c>
       <c r="H20">
-        <v>60.43633703324576</v>
+        <v>117.7162294763205</v>
       </c>
       <c r="I20">
-        <v>535.7216796635391</v>
+        <v>768.8372642268625</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K20">
-        <v>535.7216796635391</v>
+        <v>803.4554347266061</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.956913390583358</v>
       </c>
       <c r="O20">
-        <v>596.1580166967849</v>
+        <v>921.0519123928294</v>
       </c>
       <c r="P20">
-        <v>60.43633703324576</v>
+        <v>117.5964776662234</v>
       </c>
       <c r="Q20">
-        <v>2.28891523005202</v>
+        <v>2.058257316716084</v>
       </c>
       <c r="R20">
-        <v>397.388027379586</v>
+        <v>561.411624150062</v>
       </c>
       <c r="S20">
-        <v>9.86423145348536</v>
+        <v>7.832308676855702</v>
       </c>
       <c r="T20">
-        <v>9.86423145348536</v>
+        <v>7.531276678221503</v>
       </c>
       <c r="U20">
-        <v>2.28891523005202</v>
+        <v>2.01906457302112</v>
       </c>
       <c r="V20">
-        <v>397.388027379586</v>
+        <v>531.1605956215994</v>
       </c>
       <c r="W20">
-        <v>528.8145390868935</v>
+        <v>295.6989545235701</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>528.8145390868935</v>
+        <v>261.0807840238266</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>1.132595627936311</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>520.7135389543884</v>
+        <v>748.0948599029912</v>
       </c>
       <c r="H21">
-        <v>73.65587006289044</v>
+        <v>142.0282874862988</v>
       </c>
       <c r="I21">
-        <v>447.0576688914979</v>
+        <v>606.0665724166925</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K21">
-        <v>447.0576688914981</v>
+        <v>692.8004626602412</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N21">
-        <v>0.9999999999999994</v>
+        <v>0.8748068240161031</v>
       </c>
       <c r="O21">
-        <v>520.7135389543884</v>
+        <v>821.2667208296891</v>
       </c>
       <c r="P21">
-        <v>73.65587006289044</v>
+        <v>128.4662581694481</v>
       </c>
       <c r="Q21">
-        <v>1.955796219403232</v>
+        <v>1.855181642294783</v>
       </c>
       <c r="R21">
-        <v>303.0017966856411</v>
+        <v>454.4722188499787</v>
       </c>
       <c r="S21">
-        <v>7.069545692825046</v>
+        <v>6.392859358808688</v>
       </c>
       <c r="T21">
-        <v>7.069545692825046</v>
+        <v>5.267224389895982</v>
       </c>
       <c r="U21">
-        <v>1.955796219403232</v>
+        <v>1.661503542573832</v>
       </c>
       <c r="V21">
-        <v>303.0017966856411</v>
+        <v>370.0860696125123</v>
       </c>
       <c r="W21">
-        <v>550.1602943491309</v>
+        <v>391.1513908239364</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>550.1602943491307</v>
+        <v>304.4175005803876</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>1.284917555916418</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>669.3754609036663</v>
+        <v>1016.867858430217</v>
       </c>
       <c r="H22">
-        <v>24.79740104808792</v>
+        <v>34.15784264990594</v>
       </c>
       <c r="I22">
-        <v>644.5780598555784</v>
+        <v>982.710015780311</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>644.5780598555782</v>
+        <v>982.7100157803112</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O22">
-        <v>669.3754609036663</v>
+        <v>1016.867858430217</v>
       </c>
       <c r="P22">
-        <v>24.79740104808792</v>
+        <v>34.15784264990594</v>
       </c>
       <c r="Q22">
-        <v>3.295606278528671</v>
+        <v>3.393490242243627</v>
       </c>
       <c r="R22">
-        <v>562.8555892703064</v>
+        <v>866.7957100517619</v>
       </c>
       <c r="S22">
-        <v>26.99377485590493</v>
+        <v>29.76967453279773</v>
       </c>
       <c r="T22">
-        <v>26.99377485590493</v>
+        <v>29.76967453279773</v>
       </c>
       <c r="U22">
-        <v>3.295606278528671</v>
+        <v>3.393490242243627</v>
       </c>
       <c r="V22">
-        <v>562.8555892703064</v>
+        <v>866.7957100517619</v>
       </c>
       <c r="W22">
-        <v>392.1916719636163</v>
+        <v>54.05971603888372</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>392.1916719636165</v>
+        <v>54.05971603888349</v>
       </c>
       <c r="Z22">
-        <v>0.9999999999999994</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>644.4050821907314</v>
+        <v>950.390132443585</v>
       </c>
       <c r="H23">
-        <v>8.083726524303541</v>
+        <v>26.1038958049211</v>
       </c>
       <c r="I23">
-        <v>636.3213556664278</v>
+        <v>924.2862366386639</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>636.3213556664277</v>
+        <v>943.5230936858823</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.9796116733379897</v>
       </c>
       <c r="O23">
-        <v>644.405082190731</v>
+        <v>966.6805158760933</v>
       </c>
       <c r="P23">
-        <v>8.083726524303541</v>
+        <v>23.15742219021087</v>
       </c>
       <c r="Q23">
-        <v>4.37847456825939</v>
+        <v>3.73155271185724</v>
       </c>
       <c r="R23">
-        <v>600.9269646630006</v>
+        <v>857.109952112378</v>
       </c>
       <c r="S23">
-        <v>79.71633877684279</v>
+        <v>41.74387407786387</v>
       </c>
       <c r="T23">
-        <v>79.71633877684283</v>
+        <v>36.40798061507806</v>
       </c>
       <c r="U23">
-        <v>4.37847456825939</v>
+        <v>3.594787998278417</v>
       </c>
       <c r="V23">
-        <v>600.9269646630009</v>
+        <v>830.4482652908232</v>
       </c>
       <c r="W23">
-        <v>390.5865031039349</v>
+        <v>102.6216221316988</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>390.586503103935</v>
+        <v>83.38476508448048</v>
       </c>
       <c r="Z23">
-        <v>0.9999999999999997</v>
+        <v>1.230699900967865</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>475.5064093374828</v>
+        <v>868.2810643599032</v>
       </c>
       <c r="H24">
-        <v>15.31831292833941</v>
+        <v>38.9611516483486</v>
       </c>
       <c r="I24">
-        <v>460.1880964091433</v>
+        <v>829.3199127115546</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>608.129293294249</v>
+        <v>927.0714845303048</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
-        <v>0.7567273957751564</v>
+        <v>0.8945587546916347</v>
       </c>
       <c r="O24">
-        <v>623.4004120167189</v>
+        <v>981.9027636502254</v>
       </c>
       <c r="P24">
-        <v>15.27111872246999</v>
+        <v>54.83127911992045</v>
       </c>
       <c r="Q24">
-        <v>3.709225648936593</v>
+        <v>2.885231466788694</v>
       </c>
       <c r="R24">
-        <v>551.4852680409074</v>
+        <v>768.8705526492366</v>
       </c>
       <c r="S24">
-        <v>40.82218358367189</v>
+        <v>17.90771215646318</v>
       </c>
       <c r="T24">
-        <v>31.04169575082772</v>
+        <v>22.28581619446832</v>
       </c>
       <c r="U24">
-        <v>3.435331324970591</v>
+        <v>3.103950431012475</v>
       </c>
       <c r="V24">
-        <v>407.564616160717</v>
+        <v>708.3864292599205</v>
       </c>
       <c r="W24">
-        <v>585.6885006810319</v>
+        <v>216.5566843786206</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>437.7473037959262</v>
+        <v>118.8051125598704</v>
       </c>
       <c r="Z24">
-        <v>1.337960269777183</v>
+        <v>1.822789269859826</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>701.7509092685725</v>
+        <v>961.7139831228939</v>
       </c>
       <c r="H25">
-        <v>23.79939212823739</v>
+        <v>44.37821164211421</v>
       </c>
       <c r="I25">
-        <v>677.9515171403351</v>
+        <v>917.3357714807796</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>677.9515171403351</v>
+        <v>933.5177083083154</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.9826656348524335</v>
       </c>
       <c r="O25">
-        <v>701.7509092685725</v>
+        <v>986.0528152353997</v>
       </c>
       <c r="P25">
-        <v>23.79939212823739</v>
+        <v>52.53510692708451</v>
       </c>
       <c r="Q25">
-        <v>3.383918471436072</v>
+        <v>2.932228268827399</v>
       </c>
       <c r="R25">
-        <v>597.4163145086424</v>
+        <v>779.4727826708479</v>
       </c>
       <c r="S25">
-        <v>29.48608542131471</v>
+        <v>18.76940721951857</v>
       </c>
       <c r="T25">
-        <v>29.48608542131471</v>
+        <v>21.67085935951152</v>
       </c>
       <c r="U25">
-        <v>3.383918471436072</v>
+        <v>3.075968471407627</v>
       </c>
       <c r="V25">
-        <v>597.4163145086424</v>
+        <v>780.8297916521815</v>
       </c>
       <c r="W25">
-        <v>347.1496683987854</v>
+        <v>107.7654140583409</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>347.1496683987854</v>
+        <v>91.5834772308051</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>1.176690570360794</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>680.5706999701894</v>
+        <v>876.3299272843299</v>
       </c>
       <c r="H26">
-        <v>41.8523331867104</v>
+        <v>30.50295252059541</v>
       </c>
       <c r="I26">
-        <v>638.7183667834789</v>
+        <v>845.8269747637345</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>638.7183667834788</v>
+        <v>924.4436594118266</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.9149578410239606</v>
       </c>
       <c r="O26">
-        <v>680.5706999701894</v>
+        <v>955.3168129075227</v>
       </c>
       <c r="P26">
-        <v>41.8523331867104</v>
+        <v>30.87315349569634</v>
       </c>
       <c r="Q26">
-        <v>2.788784164289214</v>
+        <v>3.432156039378889</v>
       </c>
       <c r="R26">
-        <v>522.0012427538251</v>
+        <v>818.4821791869008</v>
       </c>
       <c r="S26">
-        <v>16.26123678539133</v>
+        <v>30.94328582406369</v>
       </c>
       <c r="T26">
-        <v>16.26123678539133</v>
+        <v>28.72934764897389</v>
       </c>
       <c r="U26">
-        <v>2.788784164289214</v>
+        <v>3.35791916646727</v>
       </c>
       <c r="V26">
-        <v>522.0012427538251</v>
+        <v>743.400525860986</v>
       </c>
       <c r="W26">
-        <v>365.0162526722056</v>
+        <v>157.9076446919501</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>365.0162526722057</v>
+        <v>79.29096004385792</v>
       </c>
       <c r="Z26">
-        <v>0.9999999999999997</v>
+        <v>1.991496188274264</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>690.9750963363987</v>
+        <v>933.4756805617312</v>
       </c>
       <c r="H27">
-        <v>27.69964991882632</v>
+        <v>22.32600734309579</v>
       </c>
       <c r="I27">
-        <v>663.2754464175723</v>
+        <v>911.1496732186355</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>663.2754464175723</v>
+        <v>981.4207870781896</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.928398588266344</v>
       </c>
       <c r="O27">
-        <v>690.9750963363987</v>
+        <v>1036.222599435189</v>
       </c>
       <c r="P27">
-        <v>27.69964991882632</v>
+        <v>54.80181235699949</v>
       </c>
       <c r="Q27">
-        <v>3.216684008280148</v>
+        <v>2.939613998443961</v>
       </c>
       <c r="R27">
-        <v>574.1744254887252</v>
+        <v>820.3246123334549</v>
       </c>
       <c r="S27">
-        <v>24.94526459219874</v>
+        <v>18.90854617516749</v>
       </c>
       <c r="T27">
-        <v>24.94526459219874</v>
+        <v>41.81113381432279</v>
       </c>
       <c r="U27">
-        <v>3.216684008280148</v>
+        <v>3.733162663257724</v>
       </c>
       <c r="V27">
-        <v>574.1744254887252</v>
+        <v>827.8030561857726</v>
       </c>
       <c r="W27">
-        <v>416.6849899176598</v>
+        <v>168.8107631165966</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>416.6849899176598</v>
+        <v>98.53964925704247</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>1.713125268756038</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>730.0040201670332</v>
+        <v>1050.433754446795</v>
       </c>
       <c r="H28">
-        <v>34.19222152594156</v>
+        <v>42.06973587560448</v>
       </c>
       <c r="I28">
-        <v>695.8117986410916</v>
+        <v>1008.36401857119</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>695.8117986410916</v>
+        <v>1008.36401857119</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O28">
-        <v>730.0040201670332</v>
+        <v>1050.433754446795</v>
       </c>
       <c r="P28">
-        <v>34.19222152594156</v>
+        <v>42.06973587560447</v>
       </c>
       <c r="Q28">
-        <v>3.061051863767357</v>
+        <v>3.217629837952286</v>
       </c>
       <c r="R28">
-        <v>591.1476352127619</v>
+        <v>872.9991811430734</v>
       </c>
       <c r="S28">
-        <v>21.3500026493798</v>
+        <v>24.96886972508718</v>
       </c>
       <c r="T28">
-        <v>21.3500026493798</v>
+        <v>24.96886972508718</v>
       </c>
       <c r="U28">
-        <v>3.061051863767357</v>
+        <v>3.217629837952286</v>
       </c>
       <c r="V28">
-        <v>591.1476352127619</v>
+        <v>872.9991811430734</v>
       </c>
       <c r="W28">
-        <v>362.6009525090108</v>
+        <v>50.04873257891222</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>362.6009525090108</v>
+        <v>50.048732578912</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>539.7526243629977</v>
+        <v>871.1999162065632</v>
       </c>
       <c r="H29">
-        <v>31.98169836903127</v>
+        <v>31.70310163546512</v>
       </c>
       <c r="I29">
-        <v>507.7709259939664</v>
+        <v>839.4968145710981</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>578.3340644272032</v>
+        <v>893.9732109589662</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>0.8779889638644677</v>
+        <v>0.9390626075590887</v>
       </c>
       <c r="O29">
-        <v>606.8227363160931</v>
+        <v>949.3250548656964</v>
       </c>
       <c r="P29">
-        <v>28.48867188889009</v>
+        <v>55.35184390673014</v>
       </c>
       <c r="Q29">
-        <v>3.058730185304895</v>
+        <v>2.842041291348614</v>
       </c>
       <c r="R29">
-        <v>491.194903781408</v>
+        <v>736.6609850237561</v>
       </c>
       <c r="S29">
-        <v>21.30049230384586</v>
+        <v>17.15073948512616</v>
       </c>
       <c r="T29">
-        <v>16.87692186121218</v>
+        <v>27.47995846664993</v>
       </c>
       <c r="U29">
-        <v>2.825947118345672</v>
+        <v>3.313456955950166</v>
       </c>
       <c r="V29">
-        <v>417.392337648202</v>
+        <v>734.4499519318711</v>
       </c>
       <c r="W29">
-        <v>483.8133911630848</v>
+        <v>152.0875025859532</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>413.2502527298481</v>
+        <v>97.61110619808505</v>
       </c>
       <c r="Z29">
-        <v>1.170751591722233</v>
+        <v>1.558096291597368</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>655.9578028825431</v>
+        <v>951.0320812129662</v>
       </c>
       <c r="H30">
-        <v>26.05950797221007</v>
+        <v>37.74509790341099</v>
       </c>
       <c r="I30">
-        <v>629.898294910333</v>
+        <v>913.2869833095552</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K30">
-        <v>649.8648544697025</v>
+        <v>989.6937374591025</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.9692758280094059</v>
+        <v>0.9227975774144932</v>
       </c>
       <c r="O30">
-        <v>664.6292723477798</v>
+        <v>1024.934947607054</v>
       </c>
       <c r="P30">
-        <v>14.764417878077</v>
+        <v>35.24121014795073</v>
       </c>
       <c r="Q30">
-        <v>3.807009311392282</v>
+        <v>3.370168283150675</v>
       </c>
       <c r="R30">
-        <v>593.6565781305769</v>
+        <v>870.9249287586318</v>
       </c>
       <c r="S30">
-        <v>45.01560967971903</v>
+        <v>29.08342089571103</v>
       </c>
       <c r="T30">
-        <v>25.17153445805877</v>
+        <v>25.19617470980311</v>
       </c>
       <c r="U30">
-        <v>3.225713771057733</v>
+        <v>3.226692185764977</v>
       </c>
       <c r="V30">
-        <v>545.8377811773862</v>
+        <v>791.4951708536851</v>
       </c>
       <c r="W30">
-        <v>435.4143168752365</v>
+        <v>152.0256284760143</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>415.447757315867</v>
+        <v>75.61887432646699</v>
       </c>
       <c r="Z30">
-        <v>1.048060337810871</v>
+        <v>2.01041908954739</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>803.436774448155</v>
+        <v>1167.002855257488</v>
       </c>
       <c r="H31">
-        <v>23.82225208614589</v>
+        <v>36.30497996085406</v>
       </c>
       <c r="I31">
-        <v>779.6145223620091</v>
+        <v>1130.697875296634</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>779.614522362009</v>
+        <v>1130.697875296634</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O31">
-        <v>803.4367744481551</v>
+        <v>1167.002855257488</v>
       </c>
       <c r="P31">
-        <v>23.82225208614589</v>
+        <v>36.30497996085406</v>
       </c>
       <c r="Q31">
-        <v>3.518278388924488</v>
+        <v>3.470239158082579</v>
       </c>
       <c r="R31">
-        <v>695.8012076718109</v>
+        <v>1004.710912203074</v>
       </c>
       <c r="S31">
-        <v>33.72631485649516</v>
+        <v>32.14442912558585</v>
       </c>
       <c r="T31">
-        <v>33.72631485649516</v>
+        <v>32.14442912558584</v>
       </c>
       <c r="U31">
-        <v>3.518278388924488</v>
+        <v>3.470239158082578</v>
       </c>
       <c r="V31">
-        <v>695.8012076718107</v>
+        <v>1004.710912203074</v>
       </c>
       <c r="W31">
-        <v>401.2574570529588</v>
+        <v>50.1741041183343</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>401.2574570529589</v>
+        <v>50.17410411833407</v>
       </c>
       <c r="Z31">
-        <v>0.9999999999999997</v>
+        <v>1.000000000000004</v>
       </c>
     </row>
   </sheetData>
